--- a/testData/WebForm/WF_AllValidUser_NoCondition_Test.xlsx
+++ b/testData/WebForm/WF_AllValidUser_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -112,6 +112,36 @@
   </si>
   <si>
     <t>UserName4</t>
+  </si>
+  <si>
+    <t>IsAvail</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>Aamir</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Sudhakar</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>CurrentUserPosition</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ETNotification</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -449,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,12 +499,24 @@
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" customWidth="1"/>
+    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,22 +560,52 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -572,6 +644,48 @@
       </c>
       <c r="M2" t="s">
         <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/WF_AllValidUser_NoCondition_Test.xlsx
+++ b/testData/WebForm/WF_AllValidUser_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -96,9 +96,6 @@
     <t>CRMWebFormInteg</t>
   </si>
   <si>
-    <t>Agree ,Strongly DisAgree</t>
-  </si>
-  <si>
     <t>WF_AllValidUser_NoCondition</t>
   </si>
   <si>
@@ -141,13 +138,56 @@
     <t>ETNotification</t>
   </si>
   <si>
+    <t>Agree, Strongly DisAgree</t>
+  </si>
+  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Aavanthi@rsoft.in</t>
+  </si>
+  <si>
+    <t>Abhaya@rsoft.in</t>
+  </si>
+  <si>
+    <t>Abhinav@rsoft.in</t>
+  </si>
+  <si>
+    <t>Zitin@rsoft.in</t>
+  </si>
+  <si>
+    <t>Tanishka@rsoft.in</t>
+  </si>
+  <si>
+    <t>Nitin@rsoft.in</t>
+  </si>
+  <si>
+    <t>Arun@rsoft.in</t>
+  </si>
+  <si>
+    <t>Kumar@rsoft.in</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Strongly DisAgree</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,129 +519,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
-    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" customWidth="1"/>
-    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.36328125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="17" max="17" customWidth="true" width="10.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="20" max="20" customWidth="true" width="10.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="23" max="23" customWidth="true" width="10.54296875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="27" max="27" customWidth="true" width="17.81640625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="AA1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>22</v>
       </c>
     </row>
@@ -613,15 +653,15 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>1234567890</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -630,69 +670,405 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1122334455</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1231231230</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1243213423</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>39</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0">
+        <v>4567547656</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0">
+        <v>7890870978</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0">
+        <v>7890870979</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0">
+        <v>7890870980</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0">
+        <v>7890870981</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/testData/WebForm/WF_AllValidUser_NoCondition_Test.xlsx
+++ b/testData/WebForm/WF_AllValidUser_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -138,12 +138,6 @@
     <t>ETNotification</t>
   </si>
   <si>
-    <t>Agree, Strongly DisAgree</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Aavanthi@rsoft.in</t>
   </si>
   <si>
@@ -168,26 +162,61 @@
     <t>Kumar@rsoft.in</t>
   </si>
   <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>Strongly DisAgree</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>WebFormName</t>
+  </si>
+  <si>
+    <t>wnTestAutomation</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>MC_Title</t>
+  </si>
+  <si>
+    <t>MC_Value</t>
+  </si>
+  <si>
+    <t>Select an option..!</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>2690878500</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0423371826</t>
+  </si>
+  <si>
+    <t>9840006605</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,133 +548,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.36328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="17.81640625" customWidth="1"/>
+    <col min="31" max="31" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -655,14 +693,14 @@
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="0">
-        <v>1234567890</v>
+      <c r="F2" t="s">
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -670,65 +708,74 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s" s="0">
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>35</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
         <v>38</v>
       </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -738,38 +785,44 @@
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0">
-        <v>1122334455</v>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>19</v>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -779,38 +832,44 @@
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0">
-        <v>1231231230</v>
+      <c r="F4" t="s">
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>19</v>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -820,38 +879,44 @@
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1243213423</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>19</v>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -861,38 +926,44 @@
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4567547656</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>19</v>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -902,38 +973,44 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>7890870978</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>19</v>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -943,38 +1020,44 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>7890870979</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>19</v>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -984,38 +1067,44 @@
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>7890870980</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>19</v>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1025,35 +1114,41 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>7890870981</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>19</v>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
